--- a/Metadata_Attune_Flowrates.xlsx
+++ b/Metadata_Attune_Flowrates.xlsx
@@ -5,32 +5,33 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpkerckh\Dropbox\_KYTOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fpkerckh\Dropbox\_ATP\TenderFCM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13128" windowHeight="6108" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13128" windowHeight="6108" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AttuneYG" sheetId="1" r:id="rId1"/>
-    <sheet name="FACSVerseYG" sheetId="2" r:id="rId2"/>
-    <sheet name="Attune8pk" sheetId="3" r:id="rId3"/>
-    <sheet name="FACSVerse8pk" sheetId="4" r:id="rId4"/>
-    <sheet name="AttuneTC" sheetId="5" r:id="rId5"/>
-    <sheet name="FACSVerseTC" sheetId="6" r:id="rId6"/>
-    <sheet name="AttuneRV" sheetId="7" r:id="rId7"/>
-    <sheet name="FACSVerseRV" sheetId="8" r:id="rId8"/>
-    <sheet name="AttuneTWP" sheetId="9" r:id="rId9"/>
-    <sheet name="FACSVerseTWP" sheetId="10" r:id="rId10"/>
-    <sheet name="AttuneTWE" sheetId="11" r:id="rId11"/>
-    <sheet name="FACSVerseTWE" sheetId="12" r:id="rId12"/>
+    <sheet name="AttuneYGBV" sheetId="13" r:id="rId2"/>
+    <sheet name="FACSVerseYG" sheetId="2" r:id="rId3"/>
+    <sheet name="Attune8pk" sheetId="3" r:id="rId4"/>
+    <sheet name="FACSVerse8pk" sheetId="4" r:id="rId5"/>
+    <sheet name="AttuneTC" sheetId="5" r:id="rId6"/>
+    <sheet name="FACSVerseTC" sheetId="6" r:id="rId7"/>
+    <sheet name="AttuneRV" sheetId="7" r:id="rId8"/>
+    <sheet name="FACSVerseRV" sheetId="8" r:id="rId9"/>
+    <sheet name="AttuneTWP" sheetId="9" r:id="rId10"/>
+    <sheet name="FACSVerseTWP" sheetId="10" r:id="rId11"/>
+    <sheet name="AttuneTWE" sheetId="11" r:id="rId12"/>
+    <sheet name="FACSVerseTWE" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2187" uniqueCount="486">
   <si>
     <t>Filename</t>
   </si>
@@ -1365,6 +1366,129 @@
   </si>
   <si>
     <t>TWEV</t>
+  </si>
+  <si>
+    <t>Attune_BVxx_YG1µm_Experiment_Group_A1.fcs</t>
+  </si>
+  <si>
+    <t>Attune_BVxx_YG1µm_Experiment_Group_A2.fcs</t>
+  </si>
+  <si>
+    <t>Attune_BVxx_YG1µm_Experiment_Group_A3.fcs</t>
+  </si>
+  <si>
+    <t>Attune_BVxx_YG1µm_Experiment_Group_A4.fcs</t>
+  </si>
+  <si>
+    <t>Attune_BVxx_YG1µm_Experiment_Group_A5.fcs</t>
+  </si>
+  <si>
+    <t>Attune_BVxx_YG1µm_Experiment_Group_B1.fcs</t>
+  </si>
+  <si>
+    <t>Attune_BVxx_YG1µm_Experiment_Group_B2.fcs</t>
+  </si>
+  <si>
+    <t>Attune_BVxx_YG1µm_Experiment_Group_B3.fcs</t>
+  </si>
+  <si>
+    <t>Attune_BVxx_YG1µm_Experiment_Group_B4.fcs</t>
+  </si>
+  <si>
+    <t>Attune_BVxx_YG1µm_Experiment_Group_B5.fcs</t>
+  </si>
+  <si>
+    <t>Attune_BVxx_YG1µm_Experiment_Group_C1.fcs</t>
+  </si>
+  <si>
+    <t>Attune_BVxx_YG1µm_Experiment_Group_C2.fcs</t>
+  </si>
+  <si>
+    <t>Attune_BVxx_YG1µm_Experiment_Group_C3.fcs</t>
+  </si>
+  <si>
+    <t>Attune_BVxx_YG1µm_Experiment_Group_C4.fcs</t>
+  </si>
+  <si>
+    <t>Attune_BVxx_YG1µm_Experiment_Group_C5.fcs</t>
+  </si>
+  <si>
+    <t>Attune_BVxx_YG1µm_Experiment_Group_D1.fcs</t>
+  </si>
+  <si>
+    <t>Attune_BVxx_YG1µm_Experiment_Group_D2.fcs</t>
+  </si>
+  <si>
+    <t>Attune_BVxx_YG1µm_Experiment_Group_D3.fcs</t>
+  </si>
+  <si>
+    <t>Attune_BVxx_YG1µm_Experiment_Group_D4.fcs</t>
+  </si>
+  <si>
+    <t>Attune_BVxx_YG1µm_Experiment_Group_D5.fcs</t>
+  </si>
+  <si>
+    <t>Attune_BVxx_YG1µm_Experiment_Group_E1.fcs</t>
+  </si>
+  <si>
+    <t>Attune_BVxx_YG1µm_Experiment_Group_E2.fcs</t>
+  </si>
+  <si>
+    <t>Attune_BVxx_YG1µm_Experiment_Group_E3.fcs</t>
+  </si>
+  <si>
+    <t>Attune_BVxx_YG1µm_Experiment_Group_E4.fcs</t>
+  </si>
+  <si>
+    <t>Attune_BVxx_YG1µm_Experiment_Group_E5.fcs</t>
+  </si>
+  <si>
+    <t>Attune_BVxx_YG1µm_Experiment_Group_F1.fcs</t>
+  </si>
+  <si>
+    <t>Attune_BVxx_YG1µm_Experiment_Group_F2.fcs</t>
+  </si>
+  <si>
+    <t>Attune_BVxx_YG1µm_Experiment_Group_F3.fcs</t>
+  </si>
+  <si>
+    <t>Attune_BVxx_YG1µm_Experiment_Group_F4.fcs</t>
+  </si>
+  <si>
+    <t>Attune_BVxx_YG1µm_Experiment_Group_F5.fcs</t>
+  </si>
+  <si>
+    <t>Attune_BVxx_YG1µm_Experiment_Group_G1.fcs</t>
+  </si>
+  <si>
+    <t>Attune_BVxx_YG1µm_Experiment_Group_G2.fcs</t>
+  </si>
+  <si>
+    <t>Attune_BVxx_YG1µm_Experiment_Group_G3.fcs</t>
+  </si>
+  <si>
+    <t>Attune_BVxx_YG1µm_Experiment_Group_G4.fcs</t>
+  </si>
+  <si>
+    <t>Attune_BVxx_YG1µm_Experiment_Group_G5.fcs</t>
+  </si>
+  <si>
+    <t>Attune_BVxx_YG1µm_Experiment_Group_H1.fcs</t>
+  </si>
+  <si>
+    <t>Attune_BVxx_YG1µm_Experiment_Group_H2.fcs</t>
+  </si>
+  <si>
+    <t>Attune_BVxx_YG1µm_Experiment_Group_H3.fcs</t>
+  </si>
+  <si>
+    <t>Attune_BVxx_YG1µm_Experiment_Group_H4.fcs</t>
+  </si>
+  <si>
+    <t>Attune_BVxx_YG1µm_Experiment_Group_H5.fcs</t>
+  </si>
+  <si>
+    <t>AttuneBVxx</t>
   </si>
 </sst>
 </file>
@@ -2866,6 +2990,1280 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:H46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="46.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G1" t="s">
+        <v>411</v>
+      </c>
+      <c r="H1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2">
+        <v>25635</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>433</v>
+      </c>
+      <c r="E2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F2" t="s">
+        <v>442</v>
+      </c>
+      <c r="G2" t="s">
+        <v>412</v>
+      </c>
+      <c r="H2" t="str">
+        <f>F2&amp;"_"&amp;E2&amp;"_"&amp;C2&amp;"X_"&amp;D2</f>
+        <v>TWPBS_AttuneBRxx_1X_S1A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3">
+        <v>51702</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E3" t="s">
+        <v>409</v>
+      </c>
+      <c r="F3" t="s">
+        <v>442</v>
+      </c>
+      <c r="G3" t="s">
+        <v>412</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H10" si="0">F3&amp;"_"&amp;E3&amp;"_"&amp;C3&amp;"X_"&amp;D3</f>
+        <v>TWPBS_AttuneBRxx_1X_S1B</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4">
+        <v>45859</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>435</v>
+      </c>
+      <c r="E4" t="s">
+        <v>409</v>
+      </c>
+      <c r="F4" t="s">
+        <v>442</v>
+      </c>
+      <c r="G4" t="s">
+        <v>412</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>TWPBS_AttuneBRxx_1X_S1C</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B5">
+        <v>64849</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>436</v>
+      </c>
+      <c r="E5" t="s">
+        <v>409</v>
+      </c>
+      <c r="F5" t="s">
+        <v>442</v>
+      </c>
+      <c r="G5" t="s">
+        <v>412</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>TWPBS_AttuneBRxx_1X_S2A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6">
+        <v>57568</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>437</v>
+      </c>
+      <c r="E6" t="s">
+        <v>409</v>
+      </c>
+      <c r="F6" t="s">
+        <v>442</v>
+      </c>
+      <c r="G6" t="s">
+        <v>412</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>TWPBS_AttuneBRxx_1X_S2B</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B7">
+        <v>48866</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>438</v>
+      </c>
+      <c r="E7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F7" t="s">
+        <v>442</v>
+      </c>
+      <c r="G7" t="s">
+        <v>412</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>TWPBS_AttuneBRxx_1X_S2C</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B8">
+        <v>40499</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>439</v>
+      </c>
+      <c r="E8" t="s">
+        <v>409</v>
+      </c>
+      <c r="F8" t="s">
+        <v>442</v>
+      </c>
+      <c r="G8" t="s">
+        <v>412</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>TWPBS_AttuneBRxx_1X_S3A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B9">
+        <v>66805</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>440</v>
+      </c>
+      <c r="E9" t="s">
+        <v>409</v>
+      </c>
+      <c r="F9" t="s">
+        <v>442</v>
+      </c>
+      <c r="G9" t="s">
+        <v>412</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>TWPBS_AttuneBRxx_1X_S3B</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B10">
+        <v>55660</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>441</v>
+      </c>
+      <c r="E10" t="s">
+        <v>409</v>
+      </c>
+      <c r="F10" t="s">
+        <v>442</v>
+      </c>
+      <c r="G10" t="s">
+        <v>412</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>TWPBS_AttuneBRxx_1X_S3C</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>241</v>
+      </c>
+      <c r="B11">
+        <v>43049</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>433</v>
+      </c>
+      <c r="E11" t="s">
+        <v>409</v>
+      </c>
+      <c r="F11" t="s">
+        <v>442</v>
+      </c>
+      <c r="G11" t="s">
+        <v>412</v>
+      </c>
+      <c r="H11" t="str">
+        <f>F11&amp;"_"&amp;E11&amp;"_"&amp;C11&amp;"X_"&amp;D11</f>
+        <v>TWPBS_AttuneBRxx_2X_S1A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B12">
+        <v>42219</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>434</v>
+      </c>
+      <c r="E12" t="s">
+        <v>409</v>
+      </c>
+      <c r="F12" t="s">
+        <v>442</v>
+      </c>
+      <c r="G12" t="s">
+        <v>412</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" ref="H12:H19" si="1">F12&amp;"_"&amp;E12&amp;"_"&amp;C12&amp;"X_"&amp;D12</f>
+        <v>TWPBS_AttuneBRxx_2X_S1B</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>243</v>
+      </c>
+      <c r="B13">
+        <v>36270</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>435</v>
+      </c>
+      <c r="E13" t="s">
+        <v>409</v>
+      </c>
+      <c r="F13" t="s">
+        <v>442</v>
+      </c>
+      <c r="G13" t="s">
+        <v>412</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="1"/>
+        <v>TWPBS_AttuneBRxx_2X_S1C</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>244</v>
+      </c>
+      <c r="B14">
+        <v>43532</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>436</v>
+      </c>
+      <c r="E14" t="s">
+        <v>409</v>
+      </c>
+      <c r="F14" t="s">
+        <v>442</v>
+      </c>
+      <c r="G14" t="s">
+        <v>412</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="1"/>
+        <v>TWPBS_AttuneBRxx_2X_S2A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>245</v>
+      </c>
+      <c r="B15">
+        <v>48038</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>437</v>
+      </c>
+      <c r="E15" t="s">
+        <v>409</v>
+      </c>
+      <c r="F15" t="s">
+        <v>442</v>
+      </c>
+      <c r="G15" t="s">
+        <v>412</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="1"/>
+        <v>TWPBS_AttuneBRxx_2X_S2B</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>246</v>
+      </c>
+      <c r="B16">
+        <v>46168</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>438</v>
+      </c>
+      <c r="E16" t="s">
+        <v>409</v>
+      </c>
+      <c r="F16" t="s">
+        <v>442</v>
+      </c>
+      <c r="G16" t="s">
+        <v>412</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="1"/>
+        <v>TWPBS_AttuneBRxx_2X_S2C</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>247</v>
+      </c>
+      <c r="B17">
+        <v>48146</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>439</v>
+      </c>
+      <c r="E17" t="s">
+        <v>409</v>
+      </c>
+      <c r="F17" t="s">
+        <v>442</v>
+      </c>
+      <c r="G17" t="s">
+        <v>412</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="1"/>
+        <v>TWPBS_AttuneBRxx_2X_S3A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B18">
+        <v>45391</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>440</v>
+      </c>
+      <c r="E18" t="s">
+        <v>409</v>
+      </c>
+      <c r="F18" t="s">
+        <v>442</v>
+      </c>
+      <c r="G18" t="s">
+        <v>412</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="1"/>
+        <v>TWPBS_AttuneBRxx_2X_S3B</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>249</v>
+      </c>
+      <c r="B19">
+        <v>47842</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>441</v>
+      </c>
+      <c r="E19" t="s">
+        <v>409</v>
+      </c>
+      <c r="F19" t="s">
+        <v>442</v>
+      </c>
+      <c r="G19" t="s">
+        <v>412</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="1"/>
+        <v>TWPBS_AttuneBRxx_2X_S3C</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>250</v>
+      </c>
+      <c r="B20">
+        <v>48705</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>433</v>
+      </c>
+      <c r="E20" t="s">
+        <v>409</v>
+      </c>
+      <c r="F20" t="s">
+        <v>442</v>
+      </c>
+      <c r="G20" t="s">
+        <v>412</v>
+      </c>
+      <c r="H20" t="str">
+        <f>F20&amp;"_"&amp;E20&amp;"_"&amp;C20&amp;"X_"&amp;D20</f>
+        <v>TWPBS_AttuneBRxx_4X_S1A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>251</v>
+      </c>
+      <c r="B21">
+        <v>45735</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>434</v>
+      </c>
+      <c r="E21" t="s">
+        <v>409</v>
+      </c>
+      <c r="F21" t="s">
+        <v>442</v>
+      </c>
+      <c r="G21" t="s">
+        <v>412</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" ref="H21:H28" si="2">F21&amp;"_"&amp;E21&amp;"_"&amp;C21&amp;"X_"&amp;D21</f>
+        <v>TWPBS_AttuneBRxx_4X_S1B</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>252</v>
+      </c>
+      <c r="B22">
+        <v>44427</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>435</v>
+      </c>
+      <c r="E22" t="s">
+        <v>409</v>
+      </c>
+      <c r="F22" t="s">
+        <v>442</v>
+      </c>
+      <c r="G22" t="s">
+        <v>412</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="2"/>
+        <v>TWPBS_AttuneBRxx_4X_S1C</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>253</v>
+      </c>
+      <c r="B23">
+        <v>41244</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>436</v>
+      </c>
+      <c r="E23" t="s">
+        <v>409</v>
+      </c>
+      <c r="F23" t="s">
+        <v>442</v>
+      </c>
+      <c r="G23" t="s">
+        <v>412</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="2"/>
+        <v>TWPBS_AttuneBRxx_4X_S2A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>254</v>
+      </c>
+      <c r="B24">
+        <v>36711</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>437</v>
+      </c>
+      <c r="E24" t="s">
+        <v>409</v>
+      </c>
+      <c r="F24" t="s">
+        <v>442</v>
+      </c>
+      <c r="G24" t="s">
+        <v>412</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="2"/>
+        <v>TWPBS_AttuneBRxx_4X_S2B</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>255</v>
+      </c>
+      <c r="B25">
+        <v>30805</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>438</v>
+      </c>
+      <c r="E25" t="s">
+        <v>409</v>
+      </c>
+      <c r="F25" t="s">
+        <v>442</v>
+      </c>
+      <c r="G25" t="s">
+        <v>412</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="2"/>
+        <v>TWPBS_AttuneBRxx_4X_S2C</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>256</v>
+      </c>
+      <c r="B26">
+        <v>27742</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>439</v>
+      </c>
+      <c r="E26" t="s">
+        <v>409</v>
+      </c>
+      <c r="F26" t="s">
+        <v>442</v>
+      </c>
+      <c r="G26" t="s">
+        <v>412</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="2"/>
+        <v>TWPBS_AttuneBRxx_4X_S3A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>257</v>
+      </c>
+      <c r="B27">
+        <v>50916</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>440</v>
+      </c>
+      <c r="E27" t="s">
+        <v>409</v>
+      </c>
+      <c r="F27" t="s">
+        <v>442</v>
+      </c>
+      <c r="G27" t="s">
+        <v>412</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="2"/>
+        <v>TWPBS_AttuneBRxx_4X_S3B</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>258</v>
+      </c>
+      <c r="B28">
+        <v>43201</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>441</v>
+      </c>
+      <c r="E28" t="s">
+        <v>409</v>
+      </c>
+      <c r="F28" t="s">
+        <v>442</v>
+      </c>
+      <c r="G28" t="s">
+        <v>412</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="2"/>
+        <v>TWPBS_AttuneBRxx_4X_S3C</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>259</v>
+      </c>
+      <c r="B29">
+        <v>39507</v>
+      </c>
+      <c r="C29">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>433</v>
+      </c>
+      <c r="E29" t="s">
+        <v>409</v>
+      </c>
+      <c r="F29" t="s">
+        <v>442</v>
+      </c>
+      <c r="G29" t="s">
+        <v>412</v>
+      </c>
+      <c r="H29" t="str">
+        <f>F29&amp;"_"&amp;E29&amp;"_"&amp;C29&amp;"X_"&amp;D29</f>
+        <v>TWPBS_AttuneBRxx_8X_S1A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>260</v>
+      </c>
+      <c r="B30">
+        <v>52443</v>
+      </c>
+      <c r="C30">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>434</v>
+      </c>
+      <c r="E30" t="s">
+        <v>409</v>
+      </c>
+      <c r="F30" t="s">
+        <v>442</v>
+      </c>
+      <c r="G30" t="s">
+        <v>412</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" ref="H30:H37" si="3">F30&amp;"_"&amp;E30&amp;"_"&amp;C30&amp;"X_"&amp;D30</f>
+        <v>TWPBS_AttuneBRxx_8X_S1B</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>261</v>
+      </c>
+      <c r="B31">
+        <v>46644</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>435</v>
+      </c>
+      <c r="E31" t="s">
+        <v>409</v>
+      </c>
+      <c r="F31" t="s">
+        <v>442</v>
+      </c>
+      <c r="G31" t="s">
+        <v>412</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="3"/>
+        <v>TWPBS_AttuneBRxx_8X_S1C</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>262</v>
+      </c>
+      <c r="B32">
+        <v>46313</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>436</v>
+      </c>
+      <c r="E32" t="s">
+        <v>409</v>
+      </c>
+      <c r="F32" t="s">
+        <v>442</v>
+      </c>
+      <c r="G32" t="s">
+        <v>412</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="3"/>
+        <v>TWPBS_AttuneBRxx_8X_S2A</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>263</v>
+      </c>
+      <c r="B33">
+        <v>41560</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>437</v>
+      </c>
+      <c r="E33" t="s">
+        <v>409</v>
+      </c>
+      <c r="F33" t="s">
+        <v>442</v>
+      </c>
+      <c r="G33" t="s">
+        <v>412</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="3"/>
+        <v>TWPBS_AttuneBRxx_8X_S2B</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>264</v>
+      </c>
+      <c r="B34">
+        <v>44438</v>
+      </c>
+      <c r="C34">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>438</v>
+      </c>
+      <c r="E34" t="s">
+        <v>409</v>
+      </c>
+      <c r="F34" t="s">
+        <v>442</v>
+      </c>
+      <c r="G34" t="s">
+        <v>412</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="3"/>
+        <v>TWPBS_AttuneBRxx_8X_S2C</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>265</v>
+      </c>
+      <c r="B35">
+        <v>36627</v>
+      </c>
+      <c r="C35">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>439</v>
+      </c>
+      <c r="E35" t="s">
+        <v>409</v>
+      </c>
+      <c r="F35" t="s">
+        <v>442</v>
+      </c>
+      <c r="G35" t="s">
+        <v>412</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="3"/>
+        <v>TWPBS_AttuneBRxx_8X_S3A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>266</v>
+      </c>
+      <c r="B36">
+        <v>49022</v>
+      </c>
+      <c r="C36">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>440</v>
+      </c>
+      <c r="E36" t="s">
+        <v>409</v>
+      </c>
+      <c r="F36" t="s">
+        <v>442</v>
+      </c>
+      <c r="G36" t="s">
+        <v>412</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="3"/>
+        <v>TWPBS_AttuneBRxx_8X_S3B</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>267</v>
+      </c>
+      <c r="B37">
+        <v>46889</v>
+      </c>
+      <c r="C37">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>441</v>
+      </c>
+      <c r="E37" t="s">
+        <v>409</v>
+      </c>
+      <c r="F37" t="s">
+        <v>442</v>
+      </c>
+      <c r="G37" t="s">
+        <v>412</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="3"/>
+        <v>TWPBS_AttuneBRxx_8X_S3C</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>268</v>
+      </c>
+      <c r="B38">
+        <v>53340</v>
+      </c>
+      <c r="C38">
+        <v>16</v>
+      </c>
+      <c r="D38" t="s">
+        <v>433</v>
+      </c>
+      <c r="E38" t="s">
+        <v>409</v>
+      </c>
+      <c r="F38" t="s">
+        <v>442</v>
+      </c>
+      <c r="G38" t="s">
+        <v>412</v>
+      </c>
+      <c r="H38" t="str">
+        <f>F38&amp;"_"&amp;E38&amp;"_"&amp;C38&amp;"X_"&amp;D38</f>
+        <v>TWPBS_AttuneBRxx_16X_S1A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>269</v>
+      </c>
+      <c r="B39">
+        <v>47357</v>
+      </c>
+      <c r="C39">
+        <v>16</v>
+      </c>
+      <c r="D39" t="s">
+        <v>434</v>
+      </c>
+      <c r="E39" t="s">
+        <v>409</v>
+      </c>
+      <c r="F39" t="s">
+        <v>442</v>
+      </c>
+      <c r="G39" t="s">
+        <v>412</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" ref="H39:H46" si="4">F39&amp;"_"&amp;E39&amp;"_"&amp;C39&amp;"X_"&amp;D39</f>
+        <v>TWPBS_AttuneBRxx_16X_S1B</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>270</v>
+      </c>
+      <c r="B40">
+        <v>40867</v>
+      </c>
+      <c r="C40">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>435</v>
+      </c>
+      <c r="E40" t="s">
+        <v>409</v>
+      </c>
+      <c r="F40" t="s">
+        <v>442</v>
+      </c>
+      <c r="G40" t="s">
+        <v>412</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="4"/>
+        <v>TWPBS_AttuneBRxx_16X_S1C</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>271</v>
+      </c>
+      <c r="B41">
+        <v>38890</v>
+      </c>
+      <c r="C41">
+        <v>16</v>
+      </c>
+      <c r="D41" t="s">
+        <v>436</v>
+      </c>
+      <c r="E41" t="s">
+        <v>409</v>
+      </c>
+      <c r="F41" t="s">
+        <v>442</v>
+      </c>
+      <c r="G41" t="s">
+        <v>412</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="4"/>
+        <v>TWPBS_AttuneBRxx_16X_S2A</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>272</v>
+      </c>
+      <c r="B42">
+        <v>26802</v>
+      </c>
+      <c r="C42">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s">
+        <v>437</v>
+      </c>
+      <c r="E42" t="s">
+        <v>409</v>
+      </c>
+      <c r="F42" t="s">
+        <v>442</v>
+      </c>
+      <c r="G42" t="s">
+        <v>412</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="4"/>
+        <v>TWPBS_AttuneBRxx_16X_S2B</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>273</v>
+      </c>
+      <c r="B43">
+        <v>16524</v>
+      </c>
+      <c r="C43">
+        <v>16</v>
+      </c>
+      <c r="D43" t="s">
+        <v>438</v>
+      </c>
+      <c r="E43" t="s">
+        <v>409</v>
+      </c>
+      <c r="F43" t="s">
+        <v>442</v>
+      </c>
+      <c r="G43" t="s">
+        <v>412</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="4"/>
+        <v>TWPBS_AttuneBRxx_16X_S2C</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>274</v>
+      </c>
+      <c r="B44">
+        <v>13919</v>
+      </c>
+      <c r="C44">
+        <v>16</v>
+      </c>
+      <c r="D44" t="s">
+        <v>439</v>
+      </c>
+      <c r="E44" t="s">
+        <v>409</v>
+      </c>
+      <c r="F44" t="s">
+        <v>442</v>
+      </c>
+      <c r="G44" t="s">
+        <v>412</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="4"/>
+        <v>TWPBS_AttuneBRxx_16X_S3A</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>275</v>
+      </c>
+      <c r="B45">
+        <v>16570</v>
+      </c>
+      <c r="C45">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
+        <v>440</v>
+      </c>
+      <c r="E45" t="s">
+        <v>409</v>
+      </c>
+      <c r="F45" t="s">
+        <v>442</v>
+      </c>
+      <c r="G45" t="s">
+        <v>412</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="4"/>
+        <v>TWPBS_AttuneBRxx_16X_S3B</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>276</v>
+      </c>
+      <c r="B46">
+        <v>57168</v>
+      </c>
+      <c r="C46">
+        <v>16</v>
+      </c>
+      <c r="D46" t="s">
+        <v>441</v>
+      </c>
+      <c r="E46" t="s">
+        <v>409</v>
+      </c>
+      <c r="F46" t="s">
+        <v>442</v>
+      </c>
+      <c r="G46" t="s">
+        <v>412</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="4"/>
+        <v>TWPBS_AttuneBRxx_16X_S3C</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B46">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2954,7 +4352,7 @@
         <v>412</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H10" si="0">F3&amp;"_"&amp;E3&amp;"_"&amp;C3&amp;"X_"&amp;D3</f>
+        <f t="shared" ref="H3:H8" si="0">F3&amp;"_"&amp;E3&amp;"_"&amp;C3&amp;"X_"&amp;D3</f>
         <v>TWPBS_FACSVerse_16X_S1A</v>
       </c>
     </row>
@@ -4056,7 +5454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H46"/>
   <sheetViews>
@@ -5336,11 +6734,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:B42"/>
     </sheetView>
@@ -5703,7 +7101,7 @@
         <v>443</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" ref="H13:H16" si="3">F13&amp;"_"&amp;E13&amp;"_"&amp;C13&amp;"X_"&amp;D13</f>
+        <f t="shared" ref="H13:H15" si="3">F13&amp;"_"&amp;E13&amp;"_"&amp;C13&amp;"X_"&amp;D13</f>
         <v>TWEV_FACSVerse_2X_S1C</v>
       </c>
     </row>
@@ -5811,7 +7209,7 @@
         <v>443</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" ref="H17:H20" si="4">F17&amp;"_"&amp;E17&amp;"_"&amp;C17&amp;"X_"&amp;D17</f>
+        <f t="shared" ref="H17:H19" si="4">F17&amp;"_"&amp;E17&amp;"_"&amp;C17&amp;"X_"&amp;D17</f>
         <v>TWEV_FACSVerse_2X_S2A</v>
       </c>
     </row>
@@ -6189,7 +7587,7 @@
         <v>443</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" ref="H31:H34" si="7">F31&amp;"_"&amp;E31&amp;"_"&amp;C31&amp;"X_"&amp;D31</f>
+        <f t="shared" ref="H31:H32" si="7">F31&amp;"_"&amp;E31&amp;"_"&amp;C31&amp;"X_"&amp;D31</f>
         <v>TWEV_FACSVerse_2X_S3A</v>
       </c>
     </row>
@@ -6510,6 +7908,1186 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="43.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G1" t="s">
+        <v>411</v>
+      </c>
+      <c r="H1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B2">
+        <v>54280</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="str">
+        <f>LEFT(RIGHT(A2,6),1)</f>
+        <v>A</v>
+      </c>
+      <c r="E2" t="s">
+        <v>485</v>
+      </c>
+      <c r="F2" t="s">
+        <v>410</v>
+      </c>
+      <c r="G2" t="s">
+        <v>412</v>
+      </c>
+      <c r="H2" t="str">
+        <f>F2&amp;"_"&amp;E2&amp;"_"&amp;C2&amp;"X_"&amp;D2</f>
+        <v>YG_AttuneBVxx_1X_A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B3">
+        <v>12115</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D41" si="0">LEFT(RIGHT(A3,6),1)</f>
+        <v>A</v>
+      </c>
+      <c r="E3" t="s">
+        <v>485</v>
+      </c>
+      <c r="F3" t="s">
+        <v>410</v>
+      </c>
+      <c r="G3" t="s">
+        <v>412</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H41" si="1">F3&amp;"_"&amp;E3&amp;"_"&amp;C3&amp;"X_"&amp;D3</f>
+        <v>YG_AttuneBVxx_10X_A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4">
+        <v>4545</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="E4" t="s">
+        <v>485</v>
+      </c>
+      <c r="F4" t="s">
+        <v>410</v>
+      </c>
+      <c r="G4" t="s">
+        <v>412</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="1"/>
+        <v>YG_AttuneBVxx_100X_A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B5">
+        <v>1939</v>
+      </c>
+      <c r="C5">
+        <v>1000</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="E5" t="s">
+        <v>485</v>
+      </c>
+      <c r="F5" t="s">
+        <v>410</v>
+      </c>
+      <c r="G5" t="s">
+        <v>412</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="1"/>
+        <v>YG_AttuneBVxx_1000X_A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>449</v>
+      </c>
+      <c r="B6">
+        <v>296</v>
+      </c>
+      <c r="C6">
+        <v>10000</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="E6" t="s">
+        <v>485</v>
+      </c>
+      <c r="F6" t="s">
+        <v>410</v>
+      </c>
+      <c r="G6" t="s">
+        <v>412</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="1"/>
+        <v>YG_AttuneBVxx_10000X_A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>450</v>
+      </c>
+      <c r="B7">
+        <v>54400</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="E7" t="s">
+        <v>485</v>
+      </c>
+      <c r="F7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G7" t="s">
+        <v>412</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="1"/>
+        <v>YG_AttuneBVxx_1X_B</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>451</v>
+      </c>
+      <c r="B8">
+        <v>14642</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="E8" t="s">
+        <v>485</v>
+      </c>
+      <c r="F8" t="s">
+        <v>410</v>
+      </c>
+      <c r="G8" t="s">
+        <v>412</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="1"/>
+        <v>YG_AttuneBVxx_10X_B</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>452</v>
+      </c>
+      <c r="B9">
+        <v>4532</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="E9" t="s">
+        <v>485</v>
+      </c>
+      <c r="F9" t="s">
+        <v>410</v>
+      </c>
+      <c r="G9" t="s">
+        <v>412</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="1"/>
+        <v>YG_AttuneBVxx_100X_B</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>453</v>
+      </c>
+      <c r="B10">
+        <v>2132</v>
+      </c>
+      <c r="C10">
+        <v>1000</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="E10" t="s">
+        <v>485</v>
+      </c>
+      <c r="F10" t="s">
+        <v>410</v>
+      </c>
+      <c r="G10" t="s">
+        <v>412</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="1"/>
+        <v>YG_AttuneBVxx_1000X_B</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>454</v>
+      </c>
+      <c r="B11">
+        <v>356</v>
+      </c>
+      <c r="C11">
+        <v>10000</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="E11" t="s">
+        <v>485</v>
+      </c>
+      <c r="F11" t="s">
+        <v>410</v>
+      </c>
+      <c r="G11" t="s">
+        <v>412</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="1"/>
+        <v>YG_AttuneBVxx_10000X_B</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>455</v>
+      </c>
+      <c r="B12">
+        <v>51742</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="E12" t="s">
+        <v>485</v>
+      </c>
+      <c r="F12" t="s">
+        <v>410</v>
+      </c>
+      <c r="G12" t="s">
+        <v>412</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="1"/>
+        <v>YG_AttuneBVxx_1X_C</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>456</v>
+      </c>
+      <c r="B13">
+        <v>12583</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="E13" t="s">
+        <v>485</v>
+      </c>
+      <c r="F13" t="s">
+        <v>410</v>
+      </c>
+      <c r="G13" t="s">
+        <v>412</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="1"/>
+        <v>YG_AttuneBVxx_10X_C</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>457</v>
+      </c>
+      <c r="B14">
+        <v>4697</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="E14" t="s">
+        <v>485</v>
+      </c>
+      <c r="F14" t="s">
+        <v>410</v>
+      </c>
+      <c r="G14" t="s">
+        <v>412</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="1"/>
+        <v>YG_AttuneBVxx_100X_C</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>458</v>
+      </c>
+      <c r="B15">
+        <v>1573</v>
+      </c>
+      <c r="C15">
+        <v>1000</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="E15" t="s">
+        <v>485</v>
+      </c>
+      <c r="F15" t="s">
+        <v>410</v>
+      </c>
+      <c r="G15" t="s">
+        <v>412</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="1"/>
+        <v>YG_AttuneBVxx_1000X_C</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>459</v>
+      </c>
+      <c r="B16">
+        <v>249</v>
+      </c>
+      <c r="C16">
+        <v>10000</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="E16" t="s">
+        <v>485</v>
+      </c>
+      <c r="F16" t="s">
+        <v>410</v>
+      </c>
+      <c r="G16" t="s">
+        <v>412</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="1"/>
+        <v>YG_AttuneBVxx_10000X_C</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>460</v>
+      </c>
+      <c r="B17">
+        <v>59922</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
+      <c r="E17" t="s">
+        <v>485</v>
+      </c>
+      <c r="F17" t="s">
+        <v>410</v>
+      </c>
+      <c r="G17" t="s">
+        <v>412</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="1"/>
+        <v>YG_AttuneBVxx_1X_D</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>461</v>
+      </c>
+      <c r="B18">
+        <v>13235</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
+      <c r="E18" t="s">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>410</v>
+      </c>
+      <c r="G18" t="s">
+        <v>412</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="1"/>
+        <v>YG_AttuneBVxx_10X_D</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>462</v>
+      </c>
+      <c r="B19">
+        <v>3836</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
+      <c r="E19" t="s">
+        <v>485</v>
+      </c>
+      <c r="F19" t="s">
+        <v>410</v>
+      </c>
+      <c r="G19" t="s">
+        <v>412</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="1"/>
+        <v>YG_AttuneBVxx_100X_D</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>463</v>
+      </c>
+      <c r="B20">
+        <v>1862</v>
+      </c>
+      <c r="C20">
+        <v>1000</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
+      <c r="E20" t="s">
+        <v>485</v>
+      </c>
+      <c r="F20" t="s">
+        <v>410</v>
+      </c>
+      <c r="G20" t="s">
+        <v>412</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="1"/>
+        <v>YG_AttuneBVxx_1000X_D</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>464</v>
+      </c>
+      <c r="B21">
+        <v>243</v>
+      </c>
+      <c r="C21">
+        <v>10000</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
+      <c r="E21" t="s">
+        <v>485</v>
+      </c>
+      <c r="F21" t="s">
+        <v>410</v>
+      </c>
+      <c r="G21" t="s">
+        <v>412</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="1"/>
+        <v>YG_AttuneBVxx_10000X_D</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>465</v>
+      </c>
+      <c r="B22">
+        <v>63165</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>E</v>
+      </c>
+      <c r="E22" t="s">
+        <v>485</v>
+      </c>
+      <c r="F22" t="s">
+        <v>410</v>
+      </c>
+      <c r="G22" t="s">
+        <v>412</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="1"/>
+        <v>YG_AttuneBVxx_1X_E</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>466</v>
+      </c>
+      <c r="B23">
+        <v>9729</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>E</v>
+      </c>
+      <c r="E23" t="s">
+        <v>485</v>
+      </c>
+      <c r="F23" t="s">
+        <v>410</v>
+      </c>
+      <c r="G23" t="s">
+        <v>412</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="1"/>
+        <v>YG_AttuneBVxx_10X_E</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>467</v>
+      </c>
+      <c r="B24">
+        <v>3358</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>E</v>
+      </c>
+      <c r="E24" t="s">
+        <v>485</v>
+      </c>
+      <c r="F24" t="s">
+        <v>410</v>
+      </c>
+      <c r="G24" t="s">
+        <v>412</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="1"/>
+        <v>YG_AttuneBVxx_100X_E</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>468</v>
+      </c>
+      <c r="B25">
+        <v>1835</v>
+      </c>
+      <c r="C25">
+        <v>1000</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>E</v>
+      </c>
+      <c r="E25" t="s">
+        <v>485</v>
+      </c>
+      <c r="F25" t="s">
+        <v>410</v>
+      </c>
+      <c r="G25" t="s">
+        <v>412</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="1"/>
+        <v>YG_AttuneBVxx_1000X_E</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>469</v>
+      </c>
+      <c r="B26">
+        <v>216</v>
+      </c>
+      <c r="C26">
+        <v>10000</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>E</v>
+      </c>
+      <c r="E26" t="s">
+        <v>485</v>
+      </c>
+      <c r="F26" t="s">
+        <v>410</v>
+      </c>
+      <c r="G26" t="s">
+        <v>412</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="1"/>
+        <v>YG_AttuneBVxx_10000X_E</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>470</v>
+      </c>
+      <c r="B27">
+        <v>59942</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="E27" t="s">
+        <v>485</v>
+      </c>
+      <c r="F27" t="s">
+        <v>410</v>
+      </c>
+      <c r="G27" t="s">
+        <v>412</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="1"/>
+        <v>YG_AttuneBVxx_1X_F</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>471</v>
+      </c>
+      <c r="B28">
+        <v>11737</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="E28" t="s">
+        <v>485</v>
+      </c>
+      <c r="F28" t="s">
+        <v>410</v>
+      </c>
+      <c r="G28" t="s">
+        <v>412</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="1"/>
+        <v>YG_AttuneBVxx_10X_F</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>472</v>
+      </c>
+      <c r="B29">
+        <v>3402</v>
+      </c>
+      <c r="C29">
+        <v>100</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="E29" t="s">
+        <v>485</v>
+      </c>
+      <c r="F29" t="s">
+        <v>410</v>
+      </c>
+      <c r="G29" t="s">
+        <v>412</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="1"/>
+        <v>YG_AttuneBVxx_100X_F</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>473</v>
+      </c>
+      <c r="B30">
+        <v>1730</v>
+      </c>
+      <c r="C30">
+        <v>1000</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="E30" t="s">
+        <v>485</v>
+      </c>
+      <c r="F30" t="s">
+        <v>410</v>
+      </c>
+      <c r="G30" t="s">
+        <v>412</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="1"/>
+        <v>YG_AttuneBVxx_1000X_F</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>474</v>
+      </c>
+      <c r="B31">
+        <v>329</v>
+      </c>
+      <c r="C31">
+        <v>10000</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="E31" t="s">
+        <v>485</v>
+      </c>
+      <c r="F31" t="s">
+        <v>410</v>
+      </c>
+      <c r="G31" t="s">
+        <v>412</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="1"/>
+        <v>YG_AttuneBVxx_10000X_F</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>475</v>
+      </c>
+      <c r="B32">
+        <v>54985</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>G</v>
+      </c>
+      <c r="E32" t="s">
+        <v>485</v>
+      </c>
+      <c r="F32" t="s">
+        <v>410</v>
+      </c>
+      <c r="G32" t="s">
+        <v>412</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="1"/>
+        <v>YG_AttuneBVxx_1X_G</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>476</v>
+      </c>
+      <c r="B33">
+        <v>10358</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>G</v>
+      </c>
+      <c r="E33" t="s">
+        <v>485</v>
+      </c>
+      <c r="F33" t="s">
+        <v>410</v>
+      </c>
+      <c r="G33" t="s">
+        <v>412</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="1"/>
+        <v>YG_AttuneBVxx_10X_G</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>477</v>
+      </c>
+      <c r="B34">
+        <v>3338</v>
+      </c>
+      <c r="C34">
+        <v>100</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>G</v>
+      </c>
+      <c r="E34" t="s">
+        <v>485</v>
+      </c>
+      <c r="F34" t="s">
+        <v>410</v>
+      </c>
+      <c r="G34" t="s">
+        <v>412</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="1"/>
+        <v>YG_AttuneBVxx_100X_G</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>478</v>
+      </c>
+      <c r="B35">
+        <v>1255</v>
+      </c>
+      <c r="C35">
+        <v>1000</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>G</v>
+      </c>
+      <c r="E35" t="s">
+        <v>485</v>
+      </c>
+      <c r="F35" t="s">
+        <v>410</v>
+      </c>
+      <c r="G35" t="s">
+        <v>412</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="1"/>
+        <v>YG_AttuneBVxx_1000X_G</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>479</v>
+      </c>
+      <c r="B36">
+        <v>191</v>
+      </c>
+      <c r="C36">
+        <v>10000</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>G</v>
+      </c>
+      <c r="E36" t="s">
+        <v>485</v>
+      </c>
+      <c r="F36" t="s">
+        <v>410</v>
+      </c>
+      <c r="G36" t="s">
+        <v>412</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="1"/>
+        <v>YG_AttuneBVxx_10000X_G</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>480</v>
+      </c>
+      <c r="B37">
+        <v>59316</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>H</v>
+      </c>
+      <c r="E37" t="s">
+        <v>485</v>
+      </c>
+      <c r="F37" t="s">
+        <v>410</v>
+      </c>
+      <c r="G37" t="s">
+        <v>412</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="1"/>
+        <v>YG_AttuneBVxx_1X_H</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>481</v>
+      </c>
+      <c r="B38">
+        <v>10406</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>H</v>
+      </c>
+      <c r="E38" t="s">
+        <v>485</v>
+      </c>
+      <c r="F38" t="s">
+        <v>410</v>
+      </c>
+      <c r="G38" t="s">
+        <v>412</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="1"/>
+        <v>YG_AttuneBVxx_10X_H</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>482</v>
+      </c>
+      <c r="B39">
+        <v>2823</v>
+      </c>
+      <c r="C39">
+        <v>100</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>H</v>
+      </c>
+      <c r="E39" t="s">
+        <v>485</v>
+      </c>
+      <c r="F39" t="s">
+        <v>410</v>
+      </c>
+      <c r="G39" t="s">
+        <v>412</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="1"/>
+        <v>YG_AttuneBVxx_100X_H</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>483</v>
+      </c>
+      <c r="B40">
+        <v>1586</v>
+      </c>
+      <c r="C40">
+        <v>1000</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>H</v>
+      </c>
+      <c r="E40" t="s">
+        <v>485</v>
+      </c>
+      <c r="F40" t="s">
+        <v>410</v>
+      </c>
+      <c r="G40" t="s">
+        <v>412</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="1"/>
+        <v>YG_AttuneBVxx_1000X_H</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>484</v>
+      </c>
+      <c r="B41">
+        <v>207</v>
+      </c>
+      <c r="C41">
+        <v>10000</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>H</v>
+      </c>
+      <c r="E41" t="s">
+        <v>485</v>
+      </c>
+      <c r="F41" t="s">
+        <v>410</v>
+      </c>
+      <c r="G41" t="s">
+        <v>412</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="1"/>
+        <v>YG_AttuneBVxx_10000X_H</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B41">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7419,7 +9997,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H42"/>
   <sheetViews>
@@ -8626,7 +11204,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
@@ -9554,7 +12132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -9974,7 +12552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
@@ -10361,7 +12939,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
@@ -11259,7 +13837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
@@ -12150,1278 +14728,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H46"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:H46"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="46.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>405</v>
-      </c>
-      <c r="D1" t="s">
-        <v>406</v>
-      </c>
-      <c r="E1" t="s">
-        <v>408</v>
-      </c>
-      <c r="F1" t="s">
-        <v>407</v>
-      </c>
-      <c r="G1" t="s">
-        <v>411</v>
-      </c>
-      <c r="H1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B2">
-        <v>25635</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>433</v>
-      </c>
-      <c r="E2" t="s">
-        <v>409</v>
-      </c>
-      <c r="F2" t="s">
-        <v>442</v>
-      </c>
-      <c r="G2" t="s">
-        <v>412</v>
-      </c>
-      <c r="H2" t="str">
-        <f>F2&amp;"_"&amp;E2&amp;"_"&amp;C2&amp;"X_"&amp;D2</f>
-        <v>TWPBS_AttuneBRxx_1X_S1A</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B3">
-        <v>51702</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>434</v>
-      </c>
-      <c r="E3" t="s">
-        <v>409</v>
-      </c>
-      <c r="F3" t="s">
-        <v>442</v>
-      </c>
-      <c r="G3" t="s">
-        <v>412</v>
-      </c>
-      <c r="H3" t="str">
-        <f t="shared" ref="H3:H10" si="0">F3&amp;"_"&amp;E3&amp;"_"&amp;C3&amp;"X_"&amp;D3</f>
-        <v>TWPBS_AttuneBRxx_1X_S1B</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>234</v>
-      </c>
-      <c r="B4">
-        <v>45859</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>435</v>
-      </c>
-      <c r="E4" t="s">
-        <v>409</v>
-      </c>
-      <c r="F4" t="s">
-        <v>442</v>
-      </c>
-      <c r="G4" t="s">
-        <v>412</v>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" si="0"/>
-        <v>TWPBS_AttuneBRxx_1X_S1C</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B5">
-        <v>64849</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>436</v>
-      </c>
-      <c r="E5" t="s">
-        <v>409</v>
-      </c>
-      <c r="F5" t="s">
-        <v>442</v>
-      </c>
-      <c r="G5" t="s">
-        <v>412</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" si="0"/>
-        <v>TWPBS_AttuneBRxx_1X_S2A</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>236</v>
-      </c>
-      <c r="B6">
-        <v>57568</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>437</v>
-      </c>
-      <c r="E6" t="s">
-        <v>409</v>
-      </c>
-      <c r="F6" t="s">
-        <v>442</v>
-      </c>
-      <c r="G6" t="s">
-        <v>412</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" si="0"/>
-        <v>TWPBS_AttuneBRxx_1X_S2B</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>237</v>
-      </c>
-      <c r="B7">
-        <v>48866</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>438</v>
-      </c>
-      <c r="E7" t="s">
-        <v>409</v>
-      </c>
-      <c r="F7" t="s">
-        <v>442</v>
-      </c>
-      <c r="G7" t="s">
-        <v>412</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" si="0"/>
-        <v>TWPBS_AttuneBRxx_1X_S2C</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>238</v>
-      </c>
-      <c r="B8">
-        <v>40499</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>439</v>
-      </c>
-      <c r="E8" t="s">
-        <v>409</v>
-      </c>
-      <c r="F8" t="s">
-        <v>442</v>
-      </c>
-      <c r="G8" t="s">
-        <v>412</v>
-      </c>
-      <c r="H8" t="str">
-        <f t="shared" si="0"/>
-        <v>TWPBS_AttuneBRxx_1X_S3A</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>239</v>
-      </c>
-      <c r="B9">
-        <v>66805</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>440</v>
-      </c>
-      <c r="E9" t="s">
-        <v>409</v>
-      </c>
-      <c r="F9" t="s">
-        <v>442</v>
-      </c>
-      <c r="G9" t="s">
-        <v>412</v>
-      </c>
-      <c r="H9" t="str">
-        <f t="shared" si="0"/>
-        <v>TWPBS_AttuneBRxx_1X_S3B</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>240</v>
-      </c>
-      <c r="B10">
-        <v>55660</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>441</v>
-      </c>
-      <c r="E10" t="s">
-        <v>409</v>
-      </c>
-      <c r="F10" t="s">
-        <v>442</v>
-      </c>
-      <c r="G10" t="s">
-        <v>412</v>
-      </c>
-      <c r="H10" t="str">
-        <f t="shared" si="0"/>
-        <v>TWPBS_AttuneBRxx_1X_S3C</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>241</v>
-      </c>
-      <c r="B11">
-        <v>43049</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>433</v>
-      </c>
-      <c r="E11" t="s">
-        <v>409</v>
-      </c>
-      <c r="F11" t="s">
-        <v>442</v>
-      </c>
-      <c r="G11" t="s">
-        <v>412</v>
-      </c>
-      <c r="H11" t="str">
-        <f>F11&amp;"_"&amp;E11&amp;"_"&amp;C11&amp;"X_"&amp;D11</f>
-        <v>TWPBS_AttuneBRxx_2X_S1A</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>242</v>
-      </c>
-      <c r="B12">
-        <v>42219</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>434</v>
-      </c>
-      <c r="E12" t="s">
-        <v>409</v>
-      </c>
-      <c r="F12" t="s">
-        <v>442</v>
-      </c>
-      <c r="G12" t="s">
-        <v>412</v>
-      </c>
-      <c r="H12" t="str">
-        <f t="shared" ref="H12:H19" si="1">F12&amp;"_"&amp;E12&amp;"_"&amp;C12&amp;"X_"&amp;D12</f>
-        <v>TWPBS_AttuneBRxx_2X_S1B</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>243</v>
-      </c>
-      <c r="B13">
-        <v>36270</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>435</v>
-      </c>
-      <c r="E13" t="s">
-        <v>409</v>
-      </c>
-      <c r="F13" t="s">
-        <v>442</v>
-      </c>
-      <c r="G13" t="s">
-        <v>412</v>
-      </c>
-      <c r="H13" t="str">
-        <f t="shared" si="1"/>
-        <v>TWPBS_AttuneBRxx_2X_S1C</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>244</v>
-      </c>
-      <c r="B14">
-        <v>43532</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>436</v>
-      </c>
-      <c r="E14" t="s">
-        <v>409</v>
-      </c>
-      <c r="F14" t="s">
-        <v>442</v>
-      </c>
-      <c r="G14" t="s">
-        <v>412</v>
-      </c>
-      <c r="H14" t="str">
-        <f t="shared" si="1"/>
-        <v>TWPBS_AttuneBRxx_2X_S2A</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>245</v>
-      </c>
-      <c r="B15">
-        <v>48038</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>437</v>
-      </c>
-      <c r="E15" t="s">
-        <v>409</v>
-      </c>
-      <c r="F15" t="s">
-        <v>442</v>
-      </c>
-      <c r="G15" t="s">
-        <v>412</v>
-      </c>
-      <c r="H15" t="str">
-        <f t="shared" si="1"/>
-        <v>TWPBS_AttuneBRxx_2X_S2B</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>246</v>
-      </c>
-      <c r="B16">
-        <v>46168</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>438</v>
-      </c>
-      <c r="E16" t="s">
-        <v>409</v>
-      </c>
-      <c r="F16" t="s">
-        <v>442</v>
-      </c>
-      <c r="G16" t="s">
-        <v>412</v>
-      </c>
-      <c r="H16" t="str">
-        <f t="shared" si="1"/>
-        <v>TWPBS_AttuneBRxx_2X_S2C</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>247</v>
-      </c>
-      <c r="B17">
-        <v>48146</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s">
-        <v>439</v>
-      </c>
-      <c r="E17" t="s">
-        <v>409</v>
-      </c>
-      <c r="F17" t="s">
-        <v>442</v>
-      </c>
-      <c r="G17" t="s">
-        <v>412</v>
-      </c>
-      <c r="H17" t="str">
-        <f t="shared" si="1"/>
-        <v>TWPBS_AttuneBRxx_2X_S3A</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>248</v>
-      </c>
-      <c r="B18">
-        <v>45391</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>440</v>
-      </c>
-      <c r="E18" t="s">
-        <v>409</v>
-      </c>
-      <c r="F18" t="s">
-        <v>442</v>
-      </c>
-      <c r="G18" t="s">
-        <v>412</v>
-      </c>
-      <c r="H18" t="str">
-        <f t="shared" si="1"/>
-        <v>TWPBS_AttuneBRxx_2X_S3B</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>249</v>
-      </c>
-      <c r="B19">
-        <v>47842</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>441</v>
-      </c>
-      <c r="E19" t="s">
-        <v>409</v>
-      </c>
-      <c r="F19" t="s">
-        <v>442</v>
-      </c>
-      <c r="G19" t="s">
-        <v>412</v>
-      </c>
-      <c r="H19" t="str">
-        <f t="shared" si="1"/>
-        <v>TWPBS_AttuneBRxx_2X_S3C</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>250</v>
-      </c>
-      <c r="B20">
-        <v>48705</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>433</v>
-      </c>
-      <c r="E20" t="s">
-        <v>409</v>
-      </c>
-      <c r="F20" t="s">
-        <v>442</v>
-      </c>
-      <c r="G20" t="s">
-        <v>412</v>
-      </c>
-      <c r="H20" t="str">
-        <f>F20&amp;"_"&amp;E20&amp;"_"&amp;C20&amp;"X_"&amp;D20</f>
-        <v>TWPBS_AttuneBRxx_4X_S1A</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>251</v>
-      </c>
-      <c r="B21">
-        <v>45735</v>
-      </c>
-      <c r="C21">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>434</v>
-      </c>
-      <c r="E21" t="s">
-        <v>409</v>
-      </c>
-      <c r="F21" t="s">
-        <v>442</v>
-      </c>
-      <c r="G21" t="s">
-        <v>412</v>
-      </c>
-      <c r="H21" t="str">
-        <f t="shared" ref="H21:H28" si="2">F21&amp;"_"&amp;E21&amp;"_"&amp;C21&amp;"X_"&amp;D21</f>
-        <v>TWPBS_AttuneBRxx_4X_S1B</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>252</v>
-      </c>
-      <c r="B22">
-        <v>44427</v>
-      </c>
-      <c r="C22">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>435</v>
-      </c>
-      <c r="E22" t="s">
-        <v>409</v>
-      </c>
-      <c r="F22" t="s">
-        <v>442</v>
-      </c>
-      <c r="G22" t="s">
-        <v>412</v>
-      </c>
-      <c r="H22" t="str">
-        <f t="shared" si="2"/>
-        <v>TWPBS_AttuneBRxx_4X_S1C</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>253</v>
-      </c>
-      <c r="B23">
-        <v>41244</v>
-      </c>
-      <c r="C23">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>436</v>
-      </c>
-      <c r="E23" t="s">
-        <v>409</v>
-      </c>
-      <c r="F23" t="s">
-        <v>442</v>
-      </c>
-      <c r="G23" t="s">
-        <v>412</v>
-      </c>
-      <c r="H23" t="str">
-        <f t="shared" si="2"/>
-        <v>TWPBS_AttuneBRxx_4X_S2A</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>254</v>
-      </c>
-      <c r="B24">
-        <v>36711</v>
-      </c>
-      <c r="C24">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>437</v>
-      </c>
-      <c r="E24" t="s">
-        <v>409</v>
-      </c>
-      <c r="F24" t="s">
-        <v>442</v>
-      </c>
-      <c r="G24" t="s">
-        <v>412</v>
-      </c>
-      <c r="H24" t="str">
-        <f t="shared" si="2"/>
-        <v>TWPBS_AttuneBRxx_4X_S2B</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>255</v>
-      </c>
-      <c r="B25">
-        <v>30805</v>
-      </c>
-      <c r="C25">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>438</v>
-      </c>
-      <c r="E25" t="s">
-        <v>409</v>
-      </c>
-      <c r="F25" t="s">
-        <v>442</v>
-      </c>
-      <c r="G25" t="s">
-        <v>412</v>
-      </c>
-      <c r="H25" t="str">
-        <f t="shared" si="2"/>
-        <v>TWPBS_AttuneBRxx_4X_S2C</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>256</v>
-      </c>
-      <c r="B26">
-        <v>27742</v>
-      </c>
-      <c r="C26">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>439</v>
-      </c>
-      <c r="E26" t="s">
-        <v>409</v>
-      </c>
-      <c r="F26" t="s">
-        <v>442</v>
-      </c>
-      <c r="G26" t="s">
-        <v>412</v>
-      </c>
-      <c r="H26" t="str">
-        <f t="shared" si="2"/>
-        <v>TWPBS_AttuneBRxx_4X_S3A</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>257</v>
-      </c>
-      <c r="B27">
-        <v>50916</v>
-      </c>
-      <c r="C27">
-        <v>4</v>
-      </c>
-      <c r="D27" t="s">
-        <v>440</v>
-      </c>
-      <c r="E27" t="s">
-        <v>409</v>
-      </c>
-      <c r="F27" t="s">
-        <v>442</v>
-      </c>
-      <c r="G27" t="s">
-        <v>412</v>
-      </c>
-      <c r="H27" t="str">
-        <f t="shared" si="2"/>
-        <v>TWPBS_AttuneBRxx_4X_S3B</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>258</v>
-      </c>
-      <c r="B28">
-        <v>43201</v>
-      </c>
-      <c r="C28">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>441</v>
-      </c>
-      <c r="E28" t="s">
-        <v>409</v>
-      </c>
-      <c r="F28" t="s">
-        <v>442</v>
-      </c>
-      <c r="G28" t="s">
-        <v>412</v>
-      </c>
-      <c r="H28" t="str">
-        <f t="shared" si="2"/>
-        <v>TWPBS_AttuneBRxx_4X_S3C</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>259</v>
-      </c>
-      <c r="B29">
-        <v>39507</v>
-      </c>
-      <c r="C29">
-        <v>8</v>
-      </c>
-      <c r="D29" t="s">
-        <v>433</v>
-      </c>
-      <c r="E29" t="s">
-        <v>409</v>
-      </c>
-      <c r="F29" t="s">
-        <v>442</v>
-      </c>
-      <c r="G29" t="s">
-        <v>412</v>
-      </c>
-      <c r="H29" t="str">
-        <f>F29&amp;"_"&amp;E29&amp;"_"&amp;C29&amp;"X_"&amp;D29</f>
-        <v>TWPBS_AttuneBRxx_8X_S1A</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>260</v>
-      </c>
-      <c r="B30">
-        <v>52443</v>
-      </c>
-      <c r="C30">
-        <v>8</v>
-      </c>
-      <c r="D30" t="s">
-        <v>434</v>
-      </c>
-      <c r="E30" t="s">
-        <v>409</v>
-      </c>
-      <c r="F30" t="s">
-        <v>442</v>
-      </c>
-      <c r="G30" t="s">
-        <v>412</v>
-      </c>
-      <c r="H30" t="str">
-        <f t="shared" ref="H30:H37" si="3">F30&amp;"_"&amp;E30&amp;"_"&amp;C30&amp;"X_"&amp;D30</f>
-        <v>TWPBS_AttuneBRxx_8X_S1B</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>261</v>
-      </c>
-      <c r="B31">
-        <v>46644</v>
-      </c>
-      <c r="C31">
-        <v>8</v>
-      </c>
-      <c r="D31" t="s">
-        <v>435</v>
-      </c>
-      <c r="E31" t="s">
-        <v>409</v>
-      </c>
-      <c r="F31" t="s">
-        <v>442</v>
-      </c>
-      <c r="G31" t="s">
-        <v>412</v>
-      </c>
-      <c r="H31" t="str">
-        <f t="shared" si="3"/>
-        <v>TWPBS_AttuneBRxx_8X_S1C</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>262</v>
-      </c>
-      <c r="B32">
-        <v>46313</v>
-      </c>
-      <c r="C32">
-        <v>8</v>
-      </c>
-      <c r="D32" t="s">
-        <v>436</v>
-      </c>
-      <c r="E32" t="s">
-        <v>409</v>
-      </c>
-      <c r="F32" t="s">
-        <v>442</v>
-      </c>
-      <c r="G32" t="s">
-        <v>412</v>
-      </c>
-      <c r="H32" t="str">
-        <f t="shared" si="3"/>
-        <v>TWPBS_AttuneBRxx_8X_S2A</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>263</v>
-      </c>
-      <c r="B33">
-        <v>41560</v>
-      </c>
-      <c r="C33">
-        <v>8</v>
-      </c>
-      <c r="D33" t="s">
-        <v>437</v>
-      </c>
-      <c r="E33" t="s">
-        <v>409</v>
-      </c>
-      <c r="F33" t="s">
-        <v>442</v>
-      </c>
-      <c r="G33" t="s">
-        <v>412</v>
-      </c>
-      <c r="H33" t="str">
-        <f t="shared" si="3"/>
-        <v>TWPBS_AttuneBRxx_8X_S2B</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>264</v>
-      </c>
-      <c r="B34">
-        <v>44438</v>
-      </c>
-      <c r="C34">
-        <v>8</v>
-      </c>
-      <c r="D34" t="s">
-        <v>438</v>
-      </c>
-      <c r="E34" t="s">
-        <v>409</v>
-      </c>
-      <c r="F34" t="s">
-        <v>442</v>
-      </c>
-      <c r="G34" t="s">
-        <v>412</v>
-      </c>
-      <c r="H34" t="str">
-        <f t="shared" si="3"/>
-        <v>TWPBS_AttuneBRxx_8X_S2C</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>265</v>
-      </c>
-      <c r="B35">
-        <v>36627</v>
-      </c>
-      <c r="C35">
-        <v>8</v>
-      </c>
-      <c r="D35" t="s">
-        <v>439</v>
-      </c>
-      <c r="E35" t="s">
-        <v>409</v>
-      </c>
-      <c r="F35" t="s">
-        <v>442</v>
-      </c>
-      <c r="G35" t="s">
-        <v>412</v>
-      </c>
-      <c r="H35" t="str">
-        <f t="shared" si="3"/>
-        <v>TWPBS_AttuneBRxx_8X_S3A</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>266</v>
-      </c>
-      <c r="B36">
-        <v>49022</v>
-      </c>
-      <c r="C36">
-        <v>8</v>
-      </c>
-      <c r="D36" t="s">
-        <v>440</v>
-      </c>
-      <c r="E36" t="s">
-        <v>409</v>
-      </c>
-      <c r="F36" t="s">
-        <v>442</v>
-      </c>
-      <c r="G36" t="s">
-        <v>412</v>
-      </c>
-      <c r="H36" t="str">
-        <f t="shared" si="3"/>
-        <v>TWPBS_AttuneBRxx_8X_S3B</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>267</v>
-      </c>
-      <c r="B37">
-        <v>46889</v>
-      </c>
-      <c r="C37">
-        <v>8</v>
-      </c>
-      <c r="D37" t="s">
-        <v>441</v>
-      </c>
-      <c r="E37" t="s">
-        <v>409</v>
-      </c>
-      <c r="F37" t="s">
-        <v>442</v>
-      </c>
-      <c r="G37" t="s">
-        <v>412</v>
-      </c>
-      <c r="H37" t="str">
-        <f t="shared" si="3"/>
-        <v>TWPBS_AttuneBRxx_8X_S3C</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>268</v>
-      </c>
-      <c r="B38">
-        <v>53340</v>
-      </c>
-      <c r="C38">
-        <v>16</v>
-      </c>
-      <c r="D38" t="s">
-        <v>433</v>
-      </c>
-      <c r="E38" t="s">
-        <v>409</v>
-      </c>
-      <c r="F38" t="s">
-        <v>442</v>
-      </c>
-      <c r="G38" t="s">
-        <v>412</v>
-      </c>
-      <c r="H38" t="str">
-        <f>F38&amp;"_"&amp;E38&amp;"_"&amp;C38&amp;"X_"&amp;D38</f>
-        <v>TWPBS_AttuneBRxx_16X_S1A</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>269</v>
-      </c>
-      <c r="B39">
-        <v>47357</v>
-      </c>
-      <c r="C39">
-        <v>16</v>
-      </c>
-      <c r="D39" t="s">
-        <v>434</v>
-      </c>
-      <c r="E39" t="s">
-        <v>409</v>
-      </c>
-      <c r="F39" t="s">
-        <v>442</v>
-      </c>
-      <c r="G39" t="s">
-        <v>412</v>
-      </c>
-      <c r="H39" t="str">
-        <f t="shared" ref="H39:H46" si="4">F39&amp;"_"&amp;E39&amp;"_"&amp;C39&amp;"X_"&amp;D39</f>
-        <v>TWPBS_AttuneBRxx_16X_S1B</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>270</v>
-      </c>
-      <c r="B40">
-        <v>40867</v>
-      </c>
-      <c r="C40">
-        <v>16</v>
-      </c>
-      <c r="D40" t="s">
-        <v>435</v>
-      </c>
-      <c r="E40" t="s">
-        <v>409</v>
-      </c>
-      <c r="F40" t="s">
-        <v>442</v>
-      </c>
-      <c r="G40" t="s">
-        <v>412</v>
-      </c>
-      <c r="H40" t="str">
-        <f t="shared" si="4"/>
-        <v>TWPBS_AttuneBRxx_16X_S1C</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>271</v>
-      </c>
-      <c r="B41">
-        <v>38890</v>
-      </c>
-      <c r="C41">
-        <v>16</v>
-      </c>
-      <c r="D41" t="s">
-        <v>436</v>
-      </c>
-      <c r="E41" t="s">
-        <v>409</v>
-      </c>
-      <c r="F41" t="s">
-        <v>442</v>
-      </c>
-      <c r="G41" t="s">
-        <v>412</v>
-      </c>
-      <c r="H41" t="str">
-        <f t="shared" si="4"/>
-        <v>TWPBS_AttuneBRxx_16X_S2A</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>272</v>
-      </c>
-      <c r="B42">
-        <v>26802</v>
-      </c>
-      <c r="C42">
-        <v>16</v>
-      </c>
-      <c r="D42" t="s">
-        <v>437</v>
-      </c>
-      <c r="E42" t="s">
-        <v>409</v>
-      </c>
-      <c r="F42" t="s">
-        <v>442</v>
-      </c>
-      <c r="G42" t="s">
-        <v>412</v>
-      </c>
-      <c r="H42" t="str">
-        <f t="shared" si="4"/>
-        <v>TWPBS_AttuneBRxx_16X_S2B</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>273</v>
-      </c>
-      <c r="B43">
-        <v>16524</v>
-      </c>
-      <c r="C43">
-        <v>16</v>
-      </c>
-      <c r="D43" t="s">
-        <v>438</v>
-      </c>
-      <c r="E43" t="s">
-        <v>409</v>
-      </c>
-      <c r="F43" t="s">
-        <v>442</v>
-      </c>
-      <c r="G43" t="s">
-        <v>412</v>
-      </c>
-      <c r="H43" t="str">
-        <f t="shared" si="4"/>
-        <v>TWPBS_AttuneBRxx_16X_S2C</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>274</v>
-      </c>
-      <c r="B44">
-        <v>13919</v>
-      </c>
-      <c r="C44">
-        <v>16</v>
-      </c>
-      <c r="D44" t="s">
-        <v>439</v>
-      </c>
-      <c r="E44" t="s">
-        <v>409</v>
-      </c>
-      <c r="F44" t="s">
-        <v>442</v>
-      </c>
-      <c r="G44" t="s">
-        <v>412</v>
-      </c>
-      <c r="H44" t="str">
-        <f t="shared" si="4"/>
-        <v>TWPBS_AttuneBRxx_16X_S3A</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>275</v>
-      </c>
-      <c r="B45">
-        <v>16570</v>
-      </c>
-      <c r="C45">
-        <v>16</v>
-      </c>
-      <c r="D45" t="s">
-        <v>440</v>
-      </c>
-      <c r="E45" t="s">
-        <v>409</v>
-      </c>
-      <c r="F45" t="s">
-        <v>442</v>
-      </c>
-      <c r="G45" t="s">
-        <v>412</v>
-      </c>
-      <c r="H45" t="str">
-        <f t="shared" si="4"/>
-        <v>TWPBS_AttuneBRxx_16X_S3B</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>276</v>
-      </c>
-      <c r="B46">
-        <v>57168</v>
-      </c>
-      <c r="C46">
-        <v>16</v>
-      </c>
-      <c r="D46" t="s">
-        <v>441</v>
-      </c>
-      <c r="E46" t="s">
-        <v>409</v>
-      </c>
-      <c r="F46" t="s">
-        <v>442</v>
-      </c>
-      <c r="G46" t="s">
-        <v>412</v>
-      </c>
-      <c r="H46" t="str">
-        <f t="shared" si="4"/>
-        <v>TWPBS_AttuneBRxx_16X_S3C</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B2:B46">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
 </file>